--- a/Consulta2/AHP.xlsx
+++ b/Consulta2/AHP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5707B-4DE5-4CB2-87D0-65AB6B48D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA7B2D1-CAC3-4B97-B657-F5DD3D727A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Proceso Analítico Jerárquico (AHP)</t>
   </si>
@@ -157,27 +157,9 @@
     <t>Igualmente preferido</t>
   </si>
   <si>
-    <t>(C) Script</t>
-  </si>
-  <si>
     <t>DESARROLLO DE UNA SALVAGUARDA DE INTEGRIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> (A) Phyton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (B) Java</t>
-  </si>
-  <si>
-    <t>Phyton</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Matrices de Comparación por Pares</t>
   </si>
   <si>
@@ -191,6 +173,78 @@
   </si>
   <si>
     <t>Bajo tiempo procesamiento descifrado</t>
+  </si>
+  <si>
+    <t>Chacha20</t>
+  </si>
+  <si>
+    <t>Camellia-256-cbc</t>
+  </si>
+  <si>
+    <t>Aes-256-cbc</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE LAS PRUEBAS</t>
+  </si>
+  <si>
+    <t>El mejor</t>
+  </si>
+  <si>
+    <t>El peor</t>
+  </si>
+  <si>
+    <t>El intermedio</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE LA INVESTIGACIÓN DE LA DOCUMENTACIÓN</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE LAS PRUEBAS (Tiempo medio)</t>
+  </si>
+  <si>
+    <t>0.002860</t>
+  </si>
+  <si>
+    <t>0.001806</t>
+  </si>
+  <si>
+    <t>0.002734</t>
+  </si>
+  <si>
+    <t>0.003289</t>
+  </si>
+  <si>
+    <t>500kb Tamaño aprox</t>
+  </si>
+  <si>
+    <t>1000kb Tamaño aprox</t>
+  </si>
+  <si>
+    <t>1000kbTamaño aprox</t>
+  </si>
+  <si>
+    <t>0.002019</t>
+  </si>
+  <si>
+    <t>0.000667</t>
+  </si>
+  <si>
+    <t>0.002330</t>
+  </si>
+  <si>
+    <t>0.002701</t>
+  </si>
+  <si>
+    <t>0.001450</t>
+  </si>
+  <si>
+    <t>0.003881</t>
+  </si>
+  <si>
+    <t>0.003665</t>
+  </si>
+  <si>
+    <t>0.002951</t>
   </si>
 </sst>
 </file>
@@ -200,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,11 +339,6 @@
       <sz val="9"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -679,6 +728,20 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF002060"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -1277,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1314,33 +1377,32 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,65 +1417,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="31" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,239 +1492,235 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,29 +1732,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,46 +1756,60 @@
     <xf numFmtId="10" fontId="33" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,17 +2232,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2203,13 +2267,13 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="138"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="95" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
@@ -2218,18 +2282,18 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="87">
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>49</v>
+      <c r="E5" s="90" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2237,16 +2301,16 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="89">
+      <c r="B6" s="88">
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="92" t="s">
-        <v>50</v>
+      <c r="D6" s="139"/>
+      <c r="E6" s="91" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2254,16 +2318,16 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="88">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="92" t="s">
-        <v>51</v>
+      <c r="D7" s="139"/>
+      <c r="E7" s="91" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2271,16 +2335,16 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="88">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="92" t="s">
-        <v>52</v>
+      <c r="D8" s="139"/>
+      <c r="E8" s="91" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2288,48 +2352,48 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="88">
         <v>5</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="88">
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="88">
         <v>3</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="184" t="s">
-        <v>43</v>
+      <c r="D11" s="141"/>
+      <c r="E11" s="135" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2337,16 +2401,16 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="88">
         <v>2</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="117" t="s">
-        <v>44</v>
+      <c r="D12" s="141"/>
+      <c r="E12" s="115" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2354,16 +2418,16 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="89">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="117" t="s">
-        <v>41</v>
+      <c r="D13" s="141"/>
+      <c r="E13" s="115" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2374,8 +2438,8 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="93"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2397,30 +2461,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2447,13 +2514,13 @@
     <row r="4" spans="1:9" ht="25.2" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -2471,13 +2538,13 @@
     <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="146" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="148"/>
+      <c r="C6" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -2486,7 +2553,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="45"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2516,19 +2583,19 @@
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="2"/>
@@ -2545,27 +2612,27 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47" t="str">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46" t="str">
         <f>Datos!E5</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="47" t="str">
+      <c r="C12" s="47"/>
+      <c r="D12" s="46" t="str">
         <f>Datos!E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47" t="str">
+      <c r="E12" s="47"/>
+      <c r="F12" s="46" t="str">
         <f>Datos!E7</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47" t="str">
+      <c r="G12" s="47"/>
+      <c r="H12" s="46" t="str">
         <f>Datos!E8</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -2602,50 +2669,50 @@
     </row>
     <row r="16" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="98"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103" t="s">
+      <c r="D16" s="100"/>
+      <c r="E16" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="103" t="s">
+      <c r="F16" s="97"/>
+      <c r="G16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="104" t="str">
+      <c r="B18" s="97"/>
+      <c r="C18" s="102" t="str">
         <f>Datos!E11</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102" t="str">
         <f>Datos!E12</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="104" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102" t="str">
         <f>Datos!E13</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="H18" s="98"/>
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="H18" s="97"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2686,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,7 +2762,8 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
     <col min="9" max="9" width="26.21875" customWidth="1"/>
     <col min="10" max="10" width="42.5546875" customWidth="1"/>
     <col min="11" max="11" width="37.88671875" customWidth="1"/>
@@ -2704,40 +2772,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.7">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.7">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -2756,28 +2824,28 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="123">
+      <c r="B4" s="121">
         <v>4</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="154"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2798,41 +2866,41 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="155" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="54" t="str">
         <f>Datos!E5</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="E6" s="55" t="str">
+      <c r="E6" s="54" t="str">
         <f>Datos!E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="F6" s="55" t="str">
+      <c r="F6" s="54" t="str">
         <f>Datos!E7</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="G6" s="55" t="str">
+      <c r="G6" s="54" t="str">
         <f>Datos!E8</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55" t="str">
+      <c r="H6" s="54"/>
+      <c r="I6" s="54" t="str">
         <f>D6</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="J6" s="55" t="str">
+      <c r="J6" s="54" t="str">
         <f>E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="K6" s="55" t="str">
+      <c r="K6" s="54" t="str">
         <f>F6</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="L6" s="55" t="str">
+      <c r="L6" s="54" t="str">
         <f>G6</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
@@ -2840,228 +2908,228 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A7" s="157"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="52" t="str">
+      <c r="C7" s="51" t="str">
         <f>D6</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>1</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>3</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="56">
         <v>7</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="57">
         <v>7</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="70">
-        <f>IF(ISERROR(D7/D$12),0,D7/D$12)</f>
+      <c r="H7" s="70"/>
+      <c r="I7" s="69">
+        <f t="shared" ref="I7:K10" si="0">IF(ISERROR(D7/D$12),0,D7/D$12)</f>
         <v>0.61764705882352944</v>
       </c>
-      <c r="J7" s="70">
-        <f>IF(ISERROR(E7/E$12),0,E7/E$12)</f>
+      <c r="J7" s="69">
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K7" s="70">
-        <f>IF(ISERROR(F7/F$12),0,F7/F$12)</f>
+      <c r="K7" s="69">
+        <f t="shared" si="0"/>
         <v>0.61764705882352933</v>
       </c>
-      <c r="L7" s="70">
-        <f t="shared" ref="L7:L10" si="0">IF(ISERROR(G7/G$12),0,G7/G$12)</f>
+      <c r="L7" s="69">
+        <f t="shared" ref="L7:L10" si="1">IF(ISERROR(G7/G$12),0,G7/G$12)</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="61">
+      <c r="M7" s="71"/>
+      <c r="N7" s="60">
         <f>AVERAGE(I7:L7)</f>
         <v>0.57843137254901955</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A8" s="157"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="52" t="str">
+      <c r="C8" s="51" t="str">
         <f>E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>1</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="56">
         <v>3</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="56">
         <v>6</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="70">
-        <f>IF(ISERROR(D8/D$12),0,D8/D$12)</f>
+      <c r="H8" s="70"/>
+      <c r="I8" s="69">
+        <f t="shared" si="0"/>
         <v>0.20588235294117649</v>
       </c>
-      <c r="J8" s="70">
-        <f>IF(ISERROR(E8/E$12),0,E8/E$12)</f>
+      <c r="J8" s="69">
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="K8" s="70">
-        <f>IF(ISERROR(F8/F$12),0,F8/F$12)</f>
+      <c r="K8" s="69">
+        <f t="shared" si="0"/>
         <v>0.26470588235294118</v>
       </c>
-      <c r="L8" s="70">
-        <f t="shared" si="0"/>
+      <c r="L8" s="69">
+        <f t="shared" si="1"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="61">
+      <c r="M8" s="71"/>
+      <c r="N8" s="60">
         <f>AVERAGE(I8:L8)</f>
         <v>0.26143790849673204</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A9" s="157"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="52" t="str">
+      <c r="C9" s="51" t="str">
         <f>F6</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <v>1</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="56">
         <v>3</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="70">
-        <f>IF(ISERROR(D9/D$12),0,D9/D$12)</f>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69">
+        <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="J9" s="70">
-        <f>IF(ISERROR(E9/E$12),0,E9/E$12)</f>
+      <c r="J9" s="69">
+        <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="K9" s="70">
-        <f>IF(ISERROR(F9/F$12),0,F9/F$12)</f>
+      <c r="K9" s="69">
+        <f t="shared" si="0"/>
         <v>8.8235294117647051E-2</v>
       </c>
-      <c r="L9" s="70">
-        <f t="shared" si="0"/>
+      <c r="L9" s="69">
+        <f t="shared" si="1"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="61">
+      <c r="M9" s="71"/>
+      <c r="N9" s="60">
         <f>AVERAGE(I9:L9)</f>
         <v>0.1067538126361656</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A10" s="157"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="52" t="str">
+      <c r="C10" s="51" t="str">
         <f>G6</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <v>1</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70">
-        <f>IF(ISERROR(D10/D$12),0,D10/D$12)</f>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69">
+        <f t="shared" si="0"/>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="J10" s="70">
-        <f>IF(ISERROR(E10/E$12),0,E10/E$12)</f>
+      <c r="J10" s="69">
+        <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K10" s="70">
-        <f>IF(ISERROR(F10/F$12),0,F10/F$12)</f>
+      <c r="K10" s="69">
+        <f t="shared" si="0"/>
         <v>2.9411764705882349E-2</v>
       </c>
-      <c r="L10" s="70">
-        <f t="shared" si="0"/>
+      <c r="L10" s="69">
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="61">
+      <c r="M10" s="71"/>
+      <c r="N10" s="60">
         <f>AVERAGE(I10:L10)</f>
         <v>5.3376906318082798E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A11" s="157"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A12" s="158"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <f>SUM(D7:D10)</f>
         <v>1.6190476190476188</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <f>SUM(E7:E10)</f>
         <v>4.5</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f>SUM(F7:F10)</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="59">
         <f>SUM(G7:G10)</f>
         <v>17</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="60">
+      <c r="H12" s="75"/>
+      <c r="I12" s="59">
         <f>SUM(I7:I10)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="59">
         <f>SUM(J7:J10)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="59">
         <f>SUM(K7:K10)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="59">
         <f>SUM(L7:L10)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77">
+      <c r="M12" s="75"/>
+      <c r="N12" s="76">
         <f>SUM(N7:N11)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -3099,16 +3167,16 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="125">
+      <c r="B15" s="123">
         <v>3</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="49" t="str">
+      <c r="D15" s="48" t="str">
         <f>D6</f>
         <v>Confidencialidad</v>
       </c>
@@ -3124,201 +3192,209 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="148" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="112" t="str">
+      <c r="D16" s="110" t="str">
         <f>Datos!E11</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="E16" s="112" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="E16" s="110" t="str">
         <f>Datos!E12</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="F16" s="113" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="F16" s="111" t="str">
         <f>Datos!E13</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="112" t="str">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="110" t="str">
         <f>D16</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="J16" s="112" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="J16" s="110" t="str">
         <f>E16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="K16" s="112" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="K16" s="110" t="str">
         <f>F16</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="L16" s="56"/>
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="L16" s="55"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A17" s="150"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="97" t="str">
+      <c r="C17" s="96" t="str">
         <f>D16</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="D17" s="57">
+        <v>Chacha20</v>
+      </c>
+      <c r="D17" s="56">
         <v>1</v>
       </c>
-      <c r="E17" s="57">
-        <v>5</v>
-      </c>
-      <c r="F17" s="57">
-        <v>2</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60">
-        <f>IF(ISERROR(D17/D$21),0,D17/D$21)</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="J17" s="60">
-        <f>IF(ISERROR(E17/E$21),0,E17/E$21)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K17" s="60">
-        <f>IF(ISERROR(F17/F$21),0,F17/F$21)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="61">
+      <c r="E17" s="56">
+        <v>7</v>
+      </c>
+      <c r="F17" s="56">
+        <v>3</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59">
+        <f t="shared" ref="I17:K19" si="2">IF(ISERROR(D17/D$21),0,D17/D$21)</f>
+        <v>0.67741935483870974</v>
+      </c>
+      <c r="J17" s="59">
+        <f t="shared" si="2"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K17" s="59">
+        <f t="shared" si="2"/>
+        <v>0.69230769230769218</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="60">
         <f>AVERAGE(I17:K17)</f>
-        <v>0.58126361655773418</v>
+        <v>0.66869689450334613</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A18" s="150"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="97" t="str">
+      <c r="C18" s="96" t="str">
         <f>E16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="D18" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="57">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60">
-        <f>IF(ISERROR(D18/D$21),0,D18/D$21)</f>
-        <v>0.11764705882352942</v>
-      </c>
-      <c r="J18" s="60">
-        <f>IF(ISERROR(E18/E$21),0,E18/E$21)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K18" s="60">
-        <f>IF(ISERROR(F18/F$21),0,F18/F$21)</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="61">
+      <c r="G18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59">
+        <f t="shared" si="2"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="J18" s="59">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K18" s="59">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076913E-2</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="60">
         <f>AVERAGE(I18:K18)</f>
-        <v>0.10958605664488018</v>
+        <v>8.8202120460184982E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A19" s="150"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="97" t="str">
+      <c r="C19" s="96" t="str">
         <f>F16</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="D19" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="57">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="56">
         <v>3</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <v>1</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60">
-        <f>IF(ISERROR(D19/D$21),0,D19/D$21)</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="J19" s="60">
-        <f>IF(ISERROR(E19/E$21),0,E19/E$21)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K19" s="60">
-        <f>IF(ISERROR(F19/F$21),0,F19/F$21)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="61">
+      <c r="G19" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59">
+        <f t="shared" si="2"/>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="J19" s="59">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="K19" s="59">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923073</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="60">
         <f>AVERAGE(I19:K19)</f>
-        <v>0.30915032679738563</v>
+        <v>0.2431009850364689</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A20" s="150"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="62"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A21" s="151"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="60">
+      <c r="D21" s="59">
         <f>SUM(D17:D19)</f>
-        <v>1.7</v>
-      </c>
-      <c r="E21" s="60">
+        <v>1.4761904761904761</v>
+      </c>
+      <c r="E21" s="59">
         <f>SUM(E17:E19)</f>
-        <v>9</v>
-      </c>
-      <c r="F21" s="60">
+        <v>11</v>
+      </c>
+      <c r="F21" s="59">
         <f>SUM(F17:F19)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60">
+        <v>4.3333333333333339</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59">
         <f>SUM(I17:I19)</f>
         <v>1</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="59">
         <f>SUM(J17:J19)</f>
         <v>1</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="59">
         <f>SUM(K17:K19)</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="63">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="62">
         <f>SUM(N17:N19)</f>
         <v>1</v>
       </c>
@@ -3327,41 +3403,41 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="109" t="str">
+      <c r="D24" s="107" t="str">
         <f>E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
@@ -3376,221 +3452,229 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A25" s="149" t="s">
+    <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A25" s="148" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="115" t="str">
+      <c r="D25" s="113" t="str">
         <f>D16</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="E25" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="E25" s="113" t="str">
         <f>E16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="F25" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="F25" s="113" t="str">
         <f>F16</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="115" t="str">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="G25" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="114"/>
+      <c r="I25" s="113" t="str">
         <f>D25</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="J25" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="J25" s="113" t="str">
         <f>E25</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="K25" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="K25" s="113" t="str">
         <f>F25</f>
-        <v>(C) Script</v>
+        <v>Aes-256-cbc</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A26" s="150"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="113" t="str">
+      <c r="C26" s="111" t="str">
         <f>C17</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="D26" s="57">
+        <v>Chacha20</v>
+      </c>
+      <c r="D26" s="56">
         <v>1</v>
       </c>
-      <c r="E26" s="58">
-        <v>3</v>
-      </c>
-      <c r="F26" s="58">
+      <c r="E26" s="57">
+        <v>1</v>
+      </c>
+      <c r="F26" s="57">
+        <v>1</v>
+      </c>
+      <c r="G26" s="183">
+        <v>1</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59">
+        <f t="shared" ref="I26:K28" si="3">IF(ISERROR(D26/D$30),0,D26/D$30)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60">
-        <f>IF(ISERROR(D26/D$30),0,D26/D$30)</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="J26" s="60">
-        <f>IF(ISERROR(E26/E$30),0,E26/E$30)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K26" s="60">
-        <f>IF(ISERROR(F26/F$30),0,F26/F$30)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61">
+      <c r="J26" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K26" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60">
         <f>AVERAGE(I26:K26)</f>
-        <v>0.25099715099715098</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A27" s="150"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="113" t="str">
+      <c r="C27" s="111" t="str">
         <f>C18</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="D27" s="58">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="D27" s="57">
+        <v>1</v>
+      </c>
+      <c r="E27" s="56">
+        <v>1</v>
+      </c>
+      <c r="F27" s="57">
+        <v>1</v>
+      </c>
+      <c r="G27" s="183">
+        <v>1</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E27" s="57">
+      <c r="J27" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K27" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60">
+        <f>AVERAGE(I27:K27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A28" s="149"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="111" t="str">
+        <f>C19</f>
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="D28" s="57">
         <v>1</v>
       </c>
-      <c r="F27" s="58">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60">
-        <f>IF(ISERROR(D27/D$30),0,D27/D$30)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="J27" s="60">
-        <f>IF(ISERROR(E27/E$30),0,E27/E$30)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="60">
-        <f>IF(ISERROR(F27/F$30),0,F27/F$30)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="61">
-        <f>AVERAGE(I27:K27)</f>
-        <v>9.6011396011396008E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A28" s="150"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="113" t="str">
-        <f>C19</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="D28" s="58">
-        <v>3</v>
-      </c>
-      <c r="E28" s="58">
-        <v>6</v>
-      </c>
-      <c r="F28" s="57">
+      <c r="E28" s="57">
         <v>1</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60">
-        <f>IF(ISERROR(D28/D$30),0,D28/D$30)</f>
-        <v>0.6923076923076924</v>
-      </c>
-      <c r="J28" s="60">
-        <f>IF(ISERROR(E28/E$30),0,E28/E$30)</f>
-        <v>0.6</v>
-      </c>
-      <c r="K28" s="60">
-        <f>IF(ISERROR(F28/F$30),0,F28/F$30)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="61">
+      <c r="F28" s="56">
+        <v>1</v>
+      </c>
+      <c r="G28" s="183">
+        <v>1</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J28" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K28" s="59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="60">
         <f>AVERAGE(I28:K28)</f>
-        <v>0.652991452991453</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A29" s="150"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="62"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A30" s="151"/>
+      <c r="A30" s="150"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="60">
+      <c r="D30" s="59">
         <f>SUM(D26:D28)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E30" s="60">
+        <v>3</v>
+      </c>
+      <c r="E30" s="59">
         <f>SUM(E26:E28)</f>
-        <v>10</v>
-      </c>
-      <c r="F30" s="60">
+        <v>3</v>
+      </c>
+      <c r="F30" s="59">
         <f>SUM(F26:F28)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60">
+        <v>3</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59">
         <f>SUM(I26:I28)</f>
         <v>1</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="59">
         <f>SUM(J26:J28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="59">
         <f>SUM(K26:K28)</f>
         <v>1</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="63">
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="62">
         <f>SUM(N26:N28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -3609,18 +3693,20 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="109" t="str">
+      <c r="D33" s="107" t="str">
         <f>F6</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="112" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3629,221 +3715,237 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A34" s="149" t="s">
+    <row r="34" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A34" s="148" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="115" t="str">
+      <c r="D34" s="113" t="str">
         <f>D16</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="E34" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="E34" s="113" t="str">
         <f>E16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="F34" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="F34" s="113" t="str">
         <f>F16</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="115" t="str">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="113" t="str">
         <f>D34</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="J34" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="J34" s="113" t="str">
         <f>E34</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="K34" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="K34" s="113" t="str">
         <f>F34</f>
-        <v>(C) Script</v>
+        <v>Aes-256-cbc</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A35" s="150"/>
+      <c r="A35" s="149"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="113" t="str">
+      <c r="C35" s="111" t="str">
         <f>C17</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="D35" s="58">
+        <v>Chacha20</v>
+      </c>
+      <c r="D35" s="57">
         <v>1</v>
       </c>
-      <c r="E35" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="58">
+      <c r="E35" s="57">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="57">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="59">
+        <f t="shared" ref="I35:K37" si="4">IF(ISERROR(D35/D$39),0,D35/D$39)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J35" s="59">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="K35" s="59">
+        <f t="shared" si="4"/>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="60">
+        <f>AVERAGE(I35:K35)</f>
+        <v>8.1818181818181804E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A36" s="149"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="111" t="str">
+        <f>C18</f>
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="D36" s="57">
         <v>3</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60">
-        <f>IF(ISERROR(D35/D$39),0,D35/D$39)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J35" s="60">
-        <f>IF(ISERROR(E35/E$39),0,E35/E$39)</f>
-        <v>0.27272727272727276</v>
-      </c>
-      <c r="K35" s="60">
-        <f>IF(ISERROR(F35/F$39),0,F35/F$39)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="61">
-        <f>AVERAGE(I35:K35)</f>
-        <v>0.33376623376623377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A36" s="150"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="113" t="str">
-        <f>C18</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="D36" s="58">
-        <v>2</v>
-      </c>
-      <c r="E36" s="58">
+      <c r="E36" s="57">
         <v>1</v>
       </c>
-      <c r="F36" s="58">
-        <v>3</v>
-      </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60">
-        <f>IF(ISERROR(D36/D$39),0,D36/D$39)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J36" s="60">
-        <f>IF(ISERROR(E36/E$39),0,E36/E$39)</f>
-        <v>0.54545454545454553</v>
-      </c>
-      <c r="K36" s="60">
-        <f>IF(ISERROR(F36/F$39),0,F36/F$39)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="61">
+      <c r="F36" s="57">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G36" s="185" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="59">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J36" s="59">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363638</v>
+      </c>
+      <c r="K36" s="59">
+        <f t="shared" si="4"/>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="60">
         <f>AVERAGE(I36:K36)</f>
-        <v>0.52467532467532474</v>
+        <v>0.1787878787878788</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A37" s="150"/>
+      <c r="A37" s="149"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="113" t="str">
+      <c r="C37" s="111" t="str">
         <f>C19</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="D37" s="58">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E37" s="58">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F37" s="58">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="D37" s="57">
+        <v>7</v>
+      </c>
+      <c r="E37" s="57">
+        <v>6</v>
+      </c>
+      <c r="F37" s="57">
         <v>1</v>
       </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60">
-        <f>IF(ISERROR(D37/D$39),0,D37/D$39)</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="J37" s="60">
-        <f>IF(ISERROR(E37/E$39),0,E37/E$39)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="K37" s="60">
-        <f>IF(ISERROR(F37/F$39),0,F37/F$39)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="61">
+      <c r="G37" s="185" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J37" s="59">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K37" s="59">
+        <f t="shared" si="4"/>
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="60">
         <f>AVERAGE(I37:K37)</f>
-        <v>0.14155844155844155</v>
+        <v>0.73939393939393938</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A38" s="150"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="62"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="61"/>
     </row>
     <row r="39" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A39" s="151"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="60">
+      <c r="D39" s="59">
         <f>SUM(D35:D37)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E39" s="60">
+        <v>11</v>
+      </c>
+      <c r="E39" s="59">
         <f>SUM(E35:E37)</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="F39" s="60">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F39" s="59">
         <f>SUM(F35:F37)</f>
-        <v>7</v>
-      </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60">
+        <v>1.3095238095238095</v>
+      </c>
+      <c r="G39" s="184"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59">
         <f>SUM(I35:I37)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J39" s="60">
+        <v>1</v>
+      </c>
+      <c r="J39" s="59">
         <f>SUM(J35:J37)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="K39" s="60">
+        <v>1</v>
+      </c>
+      <c r="K39" s="59">
         <f>SUM(K35:K37)</f>
         <v>1</v>
       </c>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="63">
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="62">
         <f>SUM(N35:N37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
@@ -3862,18 +3964,20 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="109" t="str">
+      <c r="D42" s="107" t="str">
         <f>G6</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="112" t="s">
+        <v>55</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3882,221 +3986,237 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A43" s="149" t="s">
+    <row r="43" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A43" s="148" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="115" t="str">
+      <c r="D43" s="113" t="str">
         <f>D16</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="E43" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="E43" s="113" t="str">
         <f>E16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="F43" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="F43" s="113" t="str">
         <f>F16</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="115" t="str">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="G43" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="113" t="str">
         <f>D43</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="J43" s="115" t="str">
+        <v>Chacha20</v>
+      </c>
+      <c r="J43" s="113" t="str">
         <f>E43</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="K43" s="115" t="str">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="K43" s="113" t="str">
         <f>F43</f>
-        <v>(C) Script</v>
+        <v>Aes-256-cbc</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A44" s="150"/>
+      <c r="A44" s="149"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="113" t="str">
+      <c r="C44" s="111" t="str">
         <f>C17</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="D44" s="57">
+        <v>Chacha20</v>
+      </c>
+      <c r="D44" s="56">
         <v>1</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="57">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="59">
+        <f t="shared" ref="I44:K46" si="5">IF(ISERROR(D44/D$48),0,D44/D$48)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J44" s="59">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K44" s="59">
+        <f t="shared" si="5"/>
+        <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="60">
+        <f>AVERAGE(I44:K44)</f>
+        <v>7.6921485893935632E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A45" s="149"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="111" t="str">
+        <f>C18</f>
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="D45" s="57">
         <v>2</v>
       </c>
-      <c r="F44" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="60">
-        <f>IF(ISERROR(D44/D$48),0,D44/D$48)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J44" s="60">
-        <f>IF(ISERROR(E44/E$48),0,E44/E$48)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K44" s="60">
-        <f>IF(ISERROR(F44/F$48),0,F44/F$48)</f>
-        <v>0.27272727272727276</v>
-      </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="61">
-        <f>AVERAGE(I44:K44)</f>
-        <v>0.29725829725829728</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A45" s="150"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="113" t="str">
-        <f>C18</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="D45" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="57">
+      <c r="E45" s="56">
         <v>1</v>
       </c>
-      <c r="F45" s="58">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60">
-        <f>IF(ISERROR(D45/D$48),0,D45/D$48)</f>
+      <c r="F45" s="57">
         <v>0.14285714285714285</v>
       </c>
-      <c r="J45" s="60">
-        <f>IF(ISERROR(E45/E$48),0,E45/E$48)</f>
+      <c r="G45" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="59">
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K45" s="60">
-        <f>IF(ISERROR(F45/F$48),0,F45/F$48)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61">
+      <c r="J45" s="59">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K45" s="59">
+        <f t="shared" si="5"/>
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="60">
         <f>AVERAGE(I45:K45)</f>
-        <v>0.16378066378066378</v>
+        <v>0.13274592537436916</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A46" s="150"/>
+      <c r="A46" s="149"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="113" t="str">
+      <c r="C46" s="111" t="str">
         <f>C19</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="D46" s="57">
-        <v>2</v>
-      </c>
-      <c r="E46" s="58">
-        <v>3</v>
-      </c>
-      <c r="F46" s="57">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="D46" s="56">
+        <v>9</v>
+      </c>
+      <c r="E46" s="57">
+        <v>7</v>
+      </c>
+      <c r="F46" s="56">
         <v>1</v>
       </c>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="60">
-        <f>IF(ISERROR(D46/D$48),0,D46/D$48)</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J46" s="60">
-        <f>IF(ISERROR(E46/E$48),0,E46/E$48)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="60">
-        <f>IF(ISERROR(F46/F$48),0,F46/F$48)</f>
-        <v>0.54545454545454553</v>
-      </c>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="61">
+      <c r="G46" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="59">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="J46" s="59">
+        <f t="shared" si="5"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="K46" s="59">
+        <f t="shared" si="5"/>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="60">
         <f>AVERAGE(I46:K46)</f>
-        <v>0.53896103896103897</v>
+        <v>0.79033258873169521</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A47" s="150"/>
+      <c r="A47" s="149"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="62"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="61"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A48" s="151"/>
+      <c r="A48" s="150"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="60">
+      <c r="D48" s="59">
         <f>SUM(D44:D46)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E48" s="60">
+        <v>12</v>
+      </c>
+      <c r="E48" s="59">
         <f>SUM(E44:E46)</f>
-        <v>6</v>
-      </c>
-      <c r="F48" s="60">
+        <v>8.5</v>
+      </c>
+      <c r="F48" s="59">
         <f>SUM(F44:F46)</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="60">
+        <v>1.253968253968254</v>
+      </c>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59">
         <f>SUM(I44:I46)</f>
         <v>1</v>
       </c>
-      <c r="J48" s="60">
+      <c r="J48" s="59">
         <f>SUM(J44:J46)</f>
         <v>1</v>
       </c>
-      <c r="K48" s="60">
+      <c r="K48" s="59">
         <f>SUM(K44:K46)</f>
         <v>1</v>
       </c>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="63">
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="62">
         <f>SUM(N44:N46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4118,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4129,23 +4249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -4189,13 +4309,13 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="34.200000000000003" x14ac:dyDescent="0.8">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4255,15 +4375,15 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136" t="s">
+      <c r="H5" s="133"/>
+      <c r="I5" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="135"/>
-      <c r="K5" s="136" t="s">
+      <c r="J5" s="133"/>
+      <c r="K5" s="134" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="2"/>
@@ -4271,7 +4391,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="2"/>
@@ -4286,34 +4406,34 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="53" t="str">
+      <c r="B6" s="52" t="str">
         <f>Datos!E5</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="65">
         <f>Matrices!D7*Matrices!$N$7+Matrices!E7*Matrices!$N$8+Matrices!F7*Matrices!$N$9+Matrices!G7*Matrices!$N$10</f>
         <v>2.4836601307189543</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66">
+      <c r="D6" s="63"/>
+      <c r="E6" s="65">
         <f>IF(ISERROR(C6/Matrices!$N7),0,C6/Matrices!$N7)</f>
         <v>4.2937853107344637</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="167">
+      <c r="F6" s="63"/>
+      <c r="G6" s="166">
         <f>SUM(E6:E9)/Matrices!$B$4</f>
         <v>4.1506906182569878</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="167">
+      <c r="H6" s="63"/>
+      <c r="I6" s="166">
         <f>IF($C$11=Matrices!$B$4,0,(G6-Matrices!$B$4)/(Matrices!$B$4-1))</f>
         <v>5.0230206085662608E-2</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="170">
+      <c r="J6" s="63"/>
+      <c r="K6" s="169">
         <f>IF(I6=0,0,I6/HLOOKUP(Matrices!$B$4,$R$6:$AA$7,2,0))</f>
         <v>5.6438433804115291E-2</v>
       </c>
@@ -4322,121 +4442,121 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <v>1</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="31">
         <v>2</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="31">
         <v>3</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="31">
         <v>4</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <v>5</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="31">
         <v>6</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="31">
         <v>7</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="31">
         <v>8</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="31">
         <v>9</v>
       </c>
-      <c r="AA6" s="33">
+      <c r="AA6" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="173"/>
-      <c r="B7" s="53" t="str">
+      <c r="A7" s="172"/>
+      <c r="B7" s="52" t="str">
         <f>Datos!E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <f>Matrices!D8*Matrices!$N$7+Matrices!E8*Matrices!$N$8+Matrices!F8*Matrices!$N$9+Matrices!G8*Matrices!$N$10</f>
         <v>1.0947712418300655</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="66">
+      <c r="D7" s="63"/>
+      <c r="E7" s="65">
         <f>IF(ISERROR(C7/Matrices!$N8),0,C7/Matrices!$N8)</f>
         <v>4.1875</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="171"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="170"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="34">
         <v>0</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="34">
         <v>0</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="35">
         <v>0.89</v>
       </c>
-      <c r="V7" s="36">
+      <c r="V7" s="35">
         <v>1.1100000000000001</v>
       </c>
-      <c r="W7" s="36">
+      <c r="W7" s="35">
         <v>1.24</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="35">
         <v>1.32</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="Y7" s="35">
         <v>1.4</v>
       </c>
-      <c r="Z7" s="36">
+      <c r="Z7" s="35">
         <v>1.45</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="36">
         <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A8" s="173"/>
-      <c r="B8" s="53" t="str">
+      <c r="A8" s="172"/>
+      <c r="B8" s="52" t="str">
         <f>Datos!E7</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <f>Matrices!D9*Matrices!$N$7+Matrices!E9*Matrices!$N$8+Matrices!F9*Matrices!$N$9+Matrices!G9*Matrices!$N$10</f>
         <v>0.43666355431061316</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66">
+      <c r="D8" s="63"/>
+      <c r="E8" s="65">
         <f>IF(ISERROR(C8/Matrices!$N9),0,C8/Matrices!$N9)</f>
         <v>4.0903790087463552</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="171"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="170"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4455,26 +4575,26 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A9" s="173"/>
-      <c r="B9" s="53" t="str">
+      <c r="A9" s="172"/>
+      <c r="B9" s="52" t="str">
         <f>Datos!E8</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="65">
         <f>Matrices!D10*Matrices!$N$7+Matrices!E10*Matrices!$N$8+Matrices!F10*Matrices!$N$9+Matrices!G10*Matrices!$N$10</f>
         <v>0.21516754850088182</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="66">
+      <c r="D9" s="63"/>
+      <c r="E9" s="65">
         <f>IF(ISERROR(C9/Matrices!$N10),0,C9/Matrices!$N10)</f>
         <v>4.0310981535471324</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="175"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="174"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4493,17 +4613,17 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A10" s="173"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4522,20 +4642,20 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A11" s="174"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <f>SUM(C6:C9)</f>
         <v>4.2302624753605151</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4554,7 +4674,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -4584,10 +4704,10 @@
     </row>
     <row r="13" spans="1:27" ht="16.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="50" t="str">
+      <c r="C13" s="49" t="str">
         <f>B6</f>
         <v>Confidencialidad</v>
       </c>
@@ -4618,8 +4738,8 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4646,148 +4766,148 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="99" t="str">
+      <c r="B15" s="98" t="str">
         <f>Datos!E11</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="C15" s="66">
+        <v>Chacha20</v>
+      </c>
+      <c r="C15" s="65">
         <f>Matrices!D17*Matrices!$N$17+Matrices!E17*Matrices!$N$18+Matrices!F17*Matrices!$N$19</f>
-        <v>1.7474945533769062</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="66">
+        <v>2.0154146928340477</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65">
         <f>IF(ISERROR(C15/Matrices!$N17),0,C15/Matrices!$N17)</f>
-        <v>3.0063718140929536</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="167">
+        <v>3.0139435511076127</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="166">
         <f>SUM(E15:E17)/Matrices!$B$15</f>
-        <v>3.0036960884033568</v>
-      </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="167">
+        <v>3.0070303834347594</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="166">
         <f>IF($C$19=Matrices!$B$15,0,(G15-Matrices!$B$15)/(Matrices!$B$15-1))</f>
-        <v>1.8480442016783893E-3</v>
-      </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="170">
+        <v>3.5151917173796843E-3</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="169">
         <f>IF(I15=0,0,I15/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
-        <v>3.1862831063420509E-3</v>
-      </c>
-      <c r="L15" s="64"/>
+        <v>6.0606753747925596E-3</v>
+      </c>
+      <c r="L15" s="63"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="160"/>
-      <c r="B16" s="99" t="str">
+      <c r="A16" s="159"/>
+      <c r="B16" s="98" t="str">
         <f>Datos!E12</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="C16" s="66">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="C16" s="65">
         <f>Matrices!D18*Matrices!$N$17+Matrices!E18*Matrices!$N$18+Matrices!F18*Matrices!$N$19</f>
-        <v>0.3288888888888889</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66">
+        <v>0.26476390992520027</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="65">
         <f>IF(ISERROR(C16/Matrices!$N18),0,C16/Matrices!$N18)</f>
-        <v>3.0011928429423458</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="64"/>
+        <v>3.0017862217350708</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="160"/>
-      <c r="B17" s="99" t="str">
+      <c r="A17" s="159"/>
+      <c r="B17" s="98" t="str">
         <f>Datos!E13</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="C17" s="66">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="C17" s="65">
         <f>Matrices!D19*Matrices!$N$17+Matrices!E19*Matrices!$N$18+Matrices!F19*Matrices!$N$19</f>
-        <v>0.92854030501089324</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="66">
+        <v>0.73060631125147257</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="65">
         <f>IF(ISERROR(C17/Matrices!$N19),0,C17/Matrices!$N19)</f>
-        <v>3.0035236081747709</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="64"/>
+        <v>3.0053613774615942</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="160"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="161"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="65">
+      <c r="A19" s="160"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="64">
         <f>SUM(C15:C17)</f>
-        <v>3.0049237472766883</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+        <v>3.0107849140107206</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4796,10 +4916,10 @@
     </row>
     <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="50" t="str">
+      <c r="C21" s="49" t="str">
         <f>B7</f>
         <v>Integridad en el almacenamiento</v>
       </c>
@@ -4819,8 +4939,8 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4836,36 +4956,36 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="99" t="str">
+      <c r="B23" s="98" t="str">
         <f>B15</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="C23" s="69">
+        <v>Chacha20</v>
+      </c>
+      <c r="C23" s="68">
         <f>Matrices!D26*Matrices!$N$26+Matrices!E26*Matrices!$N$27+Matrices!F26*Matrices!$N$28</f>
-        <v>0.75669515669515675</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="69">
+        <v>1</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="68">
         <f>IF(ISERROR(C23/Matrices!$N26),0,C23/Matrices!$N26)</f>
-        <v>3.0147559591373443</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="162">
+        <v>3</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="161">
         <f>SUM(E23:E25)/Matrices!$B$15</f>
-        <v>3.0183472905636264</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="162">
+        <v>3</v>
+      </c>
+      <c r="H23" s="66"/>
+      <c r="I23" s="161">
         <f>IF($C$27=Matrices!$B$15,0,(G23-Matrices!$B$15)/(Matrices!$B$15-1))</f>
-        <v>9.1736452818131919E-3</v>
-      </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="165">
+        <v>0</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="164">
         <f>IF(I23=0,0,I23/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
-        <v>1.5816629796229643E-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -4874,26 +4994,26 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="160"/>
-      <c r="B24" s="99" t="str">
+      <c r="A24" s="159"/>
+      <c r="B24" s="98" t="str">
         <f>B16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="C24" s="69">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="C24" s="68">
         <f>Matrices!D27*Matrices!$N$26+Matrices!E27*Matrices!$N$27+Matrices!F27*Matrices!$N$28</f>
-        <v>0.28850902184235516</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="69">
+        <v>1</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="68">
         <f>IF(ISERROR(C24/Matrices!$N27),0,C24/Matrices!$N27)</f>
-        <v>3.0049455984174083</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="166"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="165"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4901,26 +5021,26 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="160"/>
-      <c r="B25" s="99" t="str">
+      <c r="A25" s="159"/>
+      <c r="B25" s="98" t="str">
         <f>B17</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="C25" s="69">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="C25" s="68">
         <f>Matrices!D28*Matrices!$N$26+Matrices!E28*Matrices!$N$27+Matrices!F28*Matrices!$N$28</f>
-        <v>1.9820512820512821</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="69">
+        <v>1</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="68">
         <f>IF(ISERROR(C25/Matrices!$N28),0,C25/Matrices!$N28)</f>
-        <v>3.0353403141361257</v>
-      </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="166"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="165"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4928,17 +5048,17 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="160"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4946,20 +5066,20 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="161"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="69">
+      <c r="C27" s="68">
         <f>SUM(C23:C25)</f>
-        <v>3.027255460588794</v>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4967,17 +5087,17 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4986,10 +5106,10 @@
     </row>
     <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="50" t="str">
+      <c r="C29" s="49" t="str">
         <f>B8</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
@@ -5009,8 +5129,8 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5026,36 +5146,36 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="99" t="str">
+      <c r="B31" s="98" t="str">
         <f>B15</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="C31" s="69">
+        <v>Chacha20</v>
+      </c>
+      <c r="C31" s="68">
         <f>Matrices!D35*Matrices!$N$35+Matrices!E35*Matrices!$N$36+Matrices!F35*Matrices!$N$37</f>
-        <v>1.0207792207792208</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="69">
+        <v>0.24704184704184703</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="68">
         <f>IF(ISERROR(C31/Matrices!$N35),0,C31/Matrices!$N35)</f>
-        <v>3.058365758754864</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="162">
+        <v>3.0194003527336863</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="161">
         <f>SUM(E31:E33)/Matrices!$B$15</f>
-        <v>3.0538185516334813</v>
-      </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="162">
+        <v>3.1023190271515424</v>
+      </c>
+      <c r="H31" s="66"/>
+      <c r="I31" s="161">
         <f>IF($C$35=Matrices!$B$15,0,(G31-Matrices!$B$15)/(Matrices!$B$15-1))</f>
-        <v>2.690927581674063E-2</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="165">
+        <v>5.1159513575771198E-2</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="K31" s="164">
         <f>IF(I31=0,0,I31/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
-        <v>4.6395303132311431E-2</v>
+        <v>8.8206057889260697E-2</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -5064,26 +5184,26 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="160"/>
-      <c r="B32" s="99" t="str">
+      <c r="A32" s="159"/>
+      <c r="B32" s="98" t="str">
         <f>B16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="C32" s="69">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="C32" s="68">
         <f>Matrices!D36*Matrices!$N$35+Matrices!E36*Matrices!$N$36+Matrices!F36*Matrices!$N$37</f>
-        <v>1.616883116883117</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="69">
+        <v>0.54747474747474745</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="68">
         <f>IF(ISERROR(C32/Matrices!$N36),0,C32/Matrices!$N36)</f>
-        <v>3.0816831683168315</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="166"/>
+        <v>3.0621468926553668</v>
+      </c>
+      <c r="F32" s="66"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="165"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5091,26 +5211,26 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="160"/>
-      <c r="B33" s="99" t="str">
+      <c r="A33" s="159"/>
+      <c r="B33" s="98" t="str">
         <f>B17</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="C33" s="69">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="C33" s="68">
         <f>Matrices!D37*Matrices!$N$35+Matrices!E37*Matrices!$N$36+Matrices!F37*Matrices!$N$37</f>
-        <v>0.4277056277056277</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="69">
+        <v>2.3848484848484848</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="68">
         <f>IF(ISERROR(C33/Matrices!$N37),0,C33/Matrices!$N37)</f>
-        <v>3.0214067278287464</v>
-      </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="166"/>
+        <v>3.2254098360655736</v>
+      </c>
+      <c r="F33" s="66"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="165"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5129,17 +5249,17 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="160"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5158,20 +5278,20 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="161"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="69">
+      <c r="C35" s="68">
         <f>SUM(C31:C33)</f>
-        <v>3.0653679653679653</v>
-      </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
+        <v>3.1793650793650792</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5190,17 +5310,17 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5220,10 +5340,10 @@
     </row>
     <row r="37" spans="1:27" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="50" t="str">
+      <c r="C37" s="49" t="str">
         <f>B9</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
@@ -5242,8 +5362,8 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -5258,36 +5378,36 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="100" t="str">
+      <c r="B39" s="99" t="str">
         <f>B15</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="C39" s="69">
+        <v>Chacha20</v>
+      </c>
+      <c r="C39" s="68">
         <f>Matrices!D44*Matrices!$N$44+Matrices!E44*Matrices!$N$45+Matrices!F44*Matrices!$N$46</f>
-        <v>0.89430014430014437</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="69">
+        <v>0.2311091806624197</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="68">
         <f>IF(ISERROR(C39/Matrices!$N44),0,C39/Matrices!$N44)</f>
-        <v>3.008495145631068</v>
-      </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="162">
+        <v>3.0044814914403517</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="161">
         <f>SUM(E39:E41)/Matrices!$B$15</f>
-        <v>3.0092086669723721</v>
-      </c>
-      <c r="H39" s="67"/>
-      <c r="I39" s="162">
+        <v>3.0218760598034478</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="161">
         <f>IF($C$43=Matrices!$B$15,0,(G39-Matrices!$B$15)/(Matrices!$B$15-1))</f>
-        <v>4.6043334861860519E-3</v>
-      </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="165">
+        <v>1.0938029901723878E-2</v>
+      </c>
+      <c r="J39" s="66"/>
+      <c r="K39" s="164">
         <f>IF(I39=0,0,I39/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
-        <v>7.938506010665607E-3</v>
+        <v>1.8858672244351515E-2</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -5295,106 +5415,106 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="160"/>
-      <c r="B40" s="100" t="str">
+      <c r="A40" s="159"/>
+      <c r="B40" s="99" t="str">
         <f>B16</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="C40" s="69">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="C40" s="68">
         <f>Matrices!D45*Matrices!$N$44+Matrices!E45*Matrices!$N$45+Matrices!F45*Matrices!$N$46</f>
-        <v>0.49206349206349209</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="69">
+        <v>0.39949355269533976</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="68">
         <f>IF(ISERROR(C40/Matrices!$N45),0,C40/Matrices!$N45)</f>
-        <v>3.0044052863436126</v>
-      </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="166"/>
+        <v>3.0094600008903529</v>
+      </c>
+      <c r="F40" s="66"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="165"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="160"/>
-      <c r="B41" s="100" t="str">
+      <c r="A41" s="159"/>
+      <c r="B41" s="99" t="str">
         <f>B17</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="C41" s="69">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="C41" s="68">
         <f>Matrices!D46*Matrices!$N$44+Matrices!E46*Matrices!$N$45+Matrices!F46*Matrices!$N$46</f>
-        <v>1.6248196248196249</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="69">
+        <v>2.4118474393977003</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="68">
         <f>IF(ISERROR(C41/Matrices!$N46),0,C41/Matrices!$N46)</f>
-        <v>3.0147255689424366</v>
-      </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="166"/>
+        <v>3.0516866870796373</v>
+      </c>
+      <c r="F41" s="66"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="165"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="160"/>
+      <c r="A42" s="159"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="161"/>
+      <c r="A43" s="160"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="68">
+      <c r="C43" s="67">
         <f>SUM(C39:C41)</f>
-        <v>3.0111832611832616</v>
-      </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+        <v>3.0424501727554598</v>
+      </c>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6315,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6326,28 +6446,29 @@
     <col min="4" max="4" width="37.21875" customWidth="1"/>
     <col min="5" max="5" width="44.5546875" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -6368,7 +6489,7 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="27.6" x14ac:dyDescent="0.65">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2"/>
@@ -6425,36 +6546,36 @@
     </row>
     <row r="6" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="126"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="179" t="s">
+      <c r="I6" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="180"/>
+      <c r="I7" s="179"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -6466,15 +6587,15 @@
     <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="111"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="181"/>
+      <c r="I8" s="180"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -6485,62 +6606,63 @@
     </row>
     <row r="9" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="87" t="str">
+      <c r="C9" s="86" t="str">
         <f>Datos!E5</f>
         <v>Confidencialidad</v>
       </c>
-      <c r="D9" s="87" t="str">
+      <c r="D9" s="86" t="str">
         <f>Datos!E6</f>
         <v>Integridad en el almacenamiento</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>Datos!E7</f>
         <v>Bajo tiempo procesamiento cifrado</v>
       </c>
-      <c r="F9" s="87" t="str">
+      <c r="F9" s="86" t="str">
         <f>Datos!E8</f>
         <v>Bajo tiempo procesamiento descifrado</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="119"/>
+      <c r="I9" s="117"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="100" t="str">
+      <c r="B10" s="99" t="str">
         <f>Datos!E11</f>
-        <v xml:space="preserve"> (A) Phyton</v>
-      </c>
-      <c r="C10" s="84">
+        <v>Chacha20</v>
+      </c>
+      <c r="C10" s="83">
         <f>Matrices!N17</f>
-        <v>0.58126361655773418</v>
-      </c>
-      <c r="D10" s="84">
+        <v>0.66869689450334613</v>
+      </c>
+      <c r="D10" s="83">
         <f>Matrices!N26</f>
-        <v>0.25099715099715098</v>
-      </c>
-      <c r="E10" s="84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="83">
         <f>Matrices!N35</f>
-        <v>0.33376623376623377</v>
-      </c>
-      <c r="F10" s="84">
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="F10" s="83">
         <f>Matrices!N44</f>
-        <v>0.29725829725829728</v>
-      </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="120">
+        <v>7.6921485893935632E-2</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="99" t="str">
+        <f>Datos!E11</f>
+        <v>Chacha20</v>
+      </c>
+      <c r="I10" s="118">
         <f>SUMPRODUCT(C10:F10,$C$14:$F$14)</f>
-        <v>0.45333882800241887</v>
-      </c>
-      <c r="J10" s="106" t="str">
+        <v>0.48678146580420634</v>
+      </c>
+      <c r="J10" s="104" t="str">
         <f>IF(I10=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
         <v>&lt;=MEJOR ALTERNATIVA</v>
       </c>
@@ -6549,35 +6671,36 @@
     </row>
     <row r="11" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="100" t="str">
+      <c r="B11" s="99" t="str">
         <f>Datos!E12</f>
-        <v xml:space="preserve"> (B) Java</v>
-      </c>
-      <c r="C11" s="84">
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="C11" s="83">
         <f>Matrices!N18</f>
-        <v>0.10958605664488018</v>
-      </c>
-      <c r="D11" s="84">
+        <v>8.8202120460184982E-2</v>
+      </c>
+      <c r="D11" s="83">
         <f>Matrices!N27</f>
-        <v>9.6011396011396008E-2</v>
-      </c>
-      <c r="E11" s="84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="83">
         <f>Matrices!N36</f>
-        <v>0.52467532467532474</v>
-      </c>
-      <c r="F11" s="84">
+        <v>0.1787878787878788</v>
+      </c>
+      <c r="F11" s="83">
         <f>Matrices!N45</f>
-        <v>0.16378066378066378</v>
-      </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="129" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="120">
+        <v>0.13274592537436916</v>
+      </c>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127" t="str">
+        <f>Datos!E12</f>
+        <v>Camellia-256-cbc</v>
+      </c>
+      <c r="I11" s="118">
         <f>SUMPRODUCT(C11:F11,$C$14:$F$14)</f>
-        <v>0.15324222817494634</v>
-      </c>
-      <c r="J11" s="107" t="str">
+        <v>0.16433669763498304</v>
+      </c>
+      <c r="J11" s="105" t="str">
         <f>IF(I11=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
         <v/>
       </c>
@@ -6586,35 +6709,36 @@
     </row>
     <row r="12" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="100" t="str">
+      <c r="B12" s="99" t="str">
         <f>Datos!E13</f>
-        <v>(C) Script</v>
-      </c>
-      <c r="C12" s="84">
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="C12" s="83">
         <f>Matrices!N19</f>
-        <v>0.30915032679738563</v>
-      </c>
-      <c r="D12" s="84">
+        <v>0.2431009850364689</v>
+      </c>
+      <c r="D12" s="83">
         <f>Matrices!N28</f>
-        <v>0.652991452991453</v>
-      </c>
-      <c r="E12" s="84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="83">
         <f>Matrices!N37</f>
-        <v>0.14155844155844155</v>
-      </c>
-      <c r="F12" s="84">
+        <v>0.73939393939393938</v>
+      </c>
+      <c r="F12" s="83">
         <f>Matrices!N46</f>
-        <v>0.53896103896103897</v>
-      </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="121">
+        <v>0.79033258873169521</v>
+      </c>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127" t="str">
+        <f>Datos!E13</f>
+        <v>Aes-256-cbc</v>
+      </c>
+      <c r="I12" s="119">
         <f>SUMPRODUCT(C12:F12,$C$14:$F$14)</f>
-        <v>0.39341894382263476</v>
-      </c>
-      <c r="J12" s="107" t="str">
+        <v>0.34888183656081062</v>
+      </c>
+      <c r="J12" s="105" t="str">
         <f>IF(I12=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
         <v/>
       </c>
@@ -6623,38 +6747,38 @@
     </row>
     <row r="13" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <f>Matrices!N7</f>
         <v>0.57843137254901955</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="84">
         <f>Matrices!N8</f>
         <v>0.26143790849673204</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="84">
         <f>Matrices!N9</f>
         <v>0.1067538126361656</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="84">
         <f>Matrices!N10</f>
         <v>5.3376906318082798E-2</v>
       </c>
-      <c r="G14" s="128"/>
+      <c r="G14" s="126"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="O14" s="2"/>
@@ -6682,14 +6806,14 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>

--- a/Consulta2/AHP.xlsx
+++ b/Consulta2/AHP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA7B2D1-CAC3-4B97-B657-F5DD3D727A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB58CA-F55A-4161-92E9-ED9CF49A0AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,28 +223,28 @@
     <t>1000kbTamaño aprox</t>
   </si>
   <si>
-    <t>0.002019</t>
-  </si>
-  <si>
-    <t>0.000667</t>
-  </si>
-  <si>
-    <t>0.002330</t>
-  </si>
-  <si>
     <t>0.002701</t>
   </si>
   <si>
     <t>0.001450</t>
   </si>
   <si>
-    <t>0.003881</t>
-  </si>
-  <si>
     <t>0.003665</t>
   </si>
   <si>
     <t>0.002951</t>
+  </si>
+  <si>
+    <t>0.001281</t>
+  </si>
+  <si>
+    <t>0.001057</t>
+  </si>
+  <si>
+    <t>0.002798</t>
+  </si>
+  <si>
+    <t>0.002329</t>
   </si>
 </sst>
 </file>
@@ -1659,6 +1659,9 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1741,6 +1744,33 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1756,33 +1786,6 @@
     <xf numFmtId="10" fontId="33" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,9 +1810,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,17 +2232,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2267,10 +2267,10 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="95" t="s">
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="141" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="90" t="s">
@@ -2308,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="139"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="91" t="s">
         <v>44</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="139"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="91" t="s">
         <v>45</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="139"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="91" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="143" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="94"/>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="141"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="135" t="s">
         <v>47</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="141"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="115" t="s">
         <v>48</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="141"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="115" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="142"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="92"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2477,17 +2477,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2514,13 +2514,13 @@
     <row r="4" spans="1:9" ht="25.2" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -2538,13 +2538,13 @@
     <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="150"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2772,22 +2772,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.7">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.7">
       <c r="A2" s="128"/>
@@ -2830,20 +2830,20 @@
       <c r="B4" s="121">
         <v>4</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="154"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
       <c r="M4" s="12"/>
       <c r="N4" s="53" t="s">
         <v>16</v>
@@ -2866,7 +2866,7 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="158" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="14"/>
@@ -2908,7 +2908,7 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A7" s="156"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="17"/>
       <c r="C7" s="51" t="str">
         <f>D6</f>
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A8" s="156"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="17"/>
       <c r="C8" s="51" t="str">
         <f>E6</f>
@@ -2992,7 +2992,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A9" s="156"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="17"/>
       <c r="C9" s="51" t="str">
         <f>F6</f>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A10" s="156"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="17"/>
       <c r="C10" s="51" t="str">
         <f>G6</f>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A11" s="156"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="72"/>
@@ -3092,7 +3092,7 @@
       <c r="N11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A12" s="157"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="59">
@@ -3192,7 +3192,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="15"/>
@@ -3230,7 +3230,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A17" s="149"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="2"/>
       <c r="C17" s="96" t="str">
         <f>D16</f>
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A18" s="149"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="2"/>
       <c r="C18" s="96" t="str">
         <f>E16</f>
@@ -3308,7 +3308,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A19" s="149"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="2"/>
       <c r="C19" s="96" t="str">
         <f>F16</f>
@@ -3347,7 +3347,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A20" s="149"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="58"/>
@@ -3363,7 +3363,7 @@
       <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A21" s="150"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="59">
@@ -3453,7 +3453,7 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="15"/>
@@ -3491,7 +3491,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A26" s="149"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="2"/>
       <c r="C26" s="111" t="str">
         <f>C17</f>
@@ -3506,7 +3506,7 @@
       <c r="F26" s="57">
         <v>1</v>
       </c>
-      <c r="G26" s="183">
+      <c r="G26" s="136">
         <v>1</v>
       </c>
       <c r="H26" s="58"/>
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A27" s="149"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="2"/>
       <c r="C27" s="111" t="str">
         <f>C18</f>
@@ -3545,7 +3545,7 @@
       <c r="F27" s="57">
         <v>1</v>
       </c>
-      <c r="G27" s="183">
+      <c r="G27" s="136">
         <v>1</v>
       </c>
       <c r="H27" s="58"/>
@@ -3569,7 +3569,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A28" s="149"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="2"/>
       <c r="C28" s="111" t="str">
         <f>C19</f>
@@ -3584,7 +3584,7 @@
       <c r="F28" s="56">
         <v>1</v>
       </c>
-      <c r="G28" s="183">
+      <c r="G28" s="136">
         <v>1</v>
       </c>
       <c r="H28" s="58"/>
@@ -3608,7 +3608,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A29" s="149"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="58"/>
@@ -3624,7 +3624,7 @@
       <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A30" s="150"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="59">
@@ -3716,7 +3716,7 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="15"/>
@@ -3756,7 +3756,7 @@
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A35" s="149"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="2"/>
       <c r="C35" s="111" t="str">
         <f>C17</f>
@@ -3769,7 +3769,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F35" s="57">
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="G35" s="58" t="s">
         <v>56</v>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="I35" s="59">
         <f t="shared" ref="I35:K37" si="4">IF(ISERROR(D35/D$39),0,D35/D$39)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J35" s="59">
         <f t="shared" si="4"/>
@@ -3787,17 +3787,17 @@
       </c>
       <c r="K35" s="59">
         <f t="shared" si="4"/>
-        <v>0.10909090909090909</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
       <c r="N35" s="60">
         <f>AVERAGE(I35:K35)</f>
-        <v>8.1818181818181804E-2</v>
+        <v>0.10096903999343025</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A36" s="149"/>
+      <c r="A36" s="152"/>
       <c r="B36" s="2"/>
       <c r="C36" s="111" t="str">
         <f>C18</f>
@@ -3812,15 +3812,15 @@
       <c r="F36" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G36" s="185" t="s">
+      <c r="G36" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="58" t="s">
         <v>66</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>70</v>
       </c>
       <c r="I36" s="59">
         <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J36" s="59">
         <f t="shared" si="4"/>
@@ -3828,24 +3828,24 @@
       </c>
       <c r="K36" s="59">
         <f t="shared" si="4"/>
-        <v>0.12727272727272726</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="L36" s="58"/>
       <c r="M36" s="58"/>
       <c r="N36" s="60">
         <f>AVERAGE(I36:K36)</f>
-        <v>0.1787878787878788</v>
+        <v>0.19721606306972161</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A37" s="149"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="2"/>
       <c r="C37" s="111" t="str">
         <f>C19</f>
         <v>Aes-256-cbc</v>
       </c>
       <c r="D37" s="57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" s="57">
         <v>6</v>
@@ -3853,15 +3853,15 @@
       <c r="F37" s="57">
         <v>1</v>
       </c>
-      <c r="G37" s="185" t="s">
-        <v>63</v>
+      <c r="G37" s="138" t="s">
+        <v>67</v>
       </c>
       <c r="H37" s="58" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I37" s="59">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="J37" s="59">
         <f t="shared" si="4"/>
@@ -3869,17 +3869,17 @@
       </c>
       <c r="K37" s="59">
         <f t="shared" si="4"/>
-        <v>0.76363636363636367</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="60">
         <f>AVERAGE(I37:K37)</f>
-        <v>0.73939393939393938</v>
+        <v>0.70181489693684806</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A38" s="149"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="58"/>
@@ -3895,12 +3895,12 @@
       <c r="N38" s="61"/>
     </row>
     <row r="39" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A39" s="150"/>
+      <c r="A39" s="153"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="59">
         <f>SUM(D35:D37)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="59">
         <f>SUM(E35:E37)</f>
@@ -3908,9 +3908,9 @@
       </c>
       <c r="F39" s="59">
         <f>SUM(F35:F37)</f>
-        <v>1.3095238095238095</v>
-      </c>
-      <c r="G39" s="184"/>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="G39" s="137"/>
       <c r="H39" s="58"/>
       <c r="I39" s="59">
         <f>SUM(I35:I37)</f>
@@ -3987,7 +3987,7 @@
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="148" t="s">
+      <c r="A43" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="15"/>
@@ -4027,7 +4027,7 @@
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A44" s="149"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="2"/>
       <c r="C44" s="111" t="str">
         <f>C17</f>
@@ -4068,7 +4068,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A45" s="149"/>
+      <c r="A45" s="152"/>
       <c r="B45" s="2"/>
       <c r="C45" s="111" t="str">
         <f>C18</f>
@@ -4084,10 +4084,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I45" s="59">
         <f t="shared" si="5"/>
@@ -4109,7 +4109,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A46" s="149"/>
+      <c r="A46" s="152"/>
       <c r="B46" s="2"/>
       <c r="C46" s="111" t="str">
         <f>C19</f>
@@ -4125,10 +4125,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I46" s="59">
         <f t="shared" si="5"/>
@@ -4150,7 +4150,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A47" s="149"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="58"/>
@@ -4166,7 +4166,7 @@
       <c r="N47" s="61"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A48" s="150"/>
+      <c r="A48" s="153"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="59">
@@ -4249,23 +4249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -4406,7 +4406,7 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="169" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="52" t="str">
@@ -4423,17 +4423,17 @@
         <v>4.2937853107344637</v>
       </c>
       <c r="F6" s="63"/>
-      <c r="G6" s="166">
+      <c r="G6" s="164">
         <f>SUM(E6:E9)/Matrices!$B$4</f>
         <v>4.1506906182569878</v>
       </c>
       <c r="H6" s="63"/>
-      <c r="I6" s="166">
+      <c r="I6" s="164">
         <f>IF($C$11=Matrices!$B$4,0,(G6-Matrices!$B$4)/(Matrices!$B$4-1))</f>
         <v>5.0230206085662608E-2</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="169">
+      <c r="K6" s="167">
         <f>IF(I6=0,0,I6/HLOOKUP(Matrices!$B$4,$R$6:$AA$7,2,0))</f>
         <v>5.6438433804115291E-2</v>
       </c>
@@ -4477,7 +4477,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="172"/>
+      <c r="A7" s="170"/>
       <c r="B7" s="52" t="str">
         <f>Datos!E6</f>
         <v>Integridad en el almacenamiento</v>
@@ -4492,11 +4492,11 @@
         <v>4.1875</v>
       </c>
       <c r="F7" s="63"/>
-      <c r="G7" s="167"/>
+      <c r="G7" s="165"/>
       <c r="H7" s="63"/>
-      <c r="I7" s="167"/>
+      <c r="I7" s="165"/>
       <c r="J7" s="63"/>
-      <c r="K7" s="170"/>
+      <c r="K7" s="168"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A8" s="172"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="52" t="str">
         <f>Datos!E7</f>
         <v>Bajo tiempo procesamiento cifrado</v>
@@ -4552,11 +4552,11 @@
         <v>4.0903790087463552</v>
       </c>
       <c r="F8" s="63"/>
-      <c r="G8" s="167"/>
+      <c r="G8" s="165"/>
       <c r="H8" s="63"/>
-      <c r="I8" s="167"/>
+      <c r="I8" s="165"/>
       <c r="J8" s="63"/>
-      <c r="K8" s="170"/>
+      <c r="K8" s="168"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4575,7 +4575,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A9" s="172"/>
+      <c r="A9" s="170"/>
       <c r="B9" s="52" t="str">
         <f>Datos!E8</f>
         <v>Bajo tiempo procesamiento descifrado</v>
@@ -4590,11 +4590,11 @@
         <v>4.0310981535471324</v>
       </c>
       <c r="F9" s="63"/>
-      <c r="G9" s="168"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="168"/>
+      <c r="I9" s="166"/>
       <c r="J9" s="63"/>
-      <c r="K9" s="174"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4613,7 +4613,7 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A10" s="172"/>
+      <c r="A10" s="170"/>
       <c r="B10" s="2"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
@@ -4642,7 +4642,7 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A11" s="173"/>
+      <c r="A11" s="171"/>
       <c r="B11" s="2"/>
       <c r="C11" s="64">
         <f>SUM(C6:C9)</f>
@@ -4766,7 +4766,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="161" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="98" t="str">
@@ -4783,17 +4783,17 @@
         <v>3.0139435511076127</v>
       </c>
       <c r="F15" s="63"/>
-      <c r="G15" s="166">
+      <c r="G15" s="164">
         <f>SUM(E15:E17)/Matrices!$B$15</f>
         <v>3.0070303834347594</v>
       </c>
       <c r="H15" s="63"/>
-      <c r="I15" s="166">
+      <c r="I15" s="164">
         <f>IF($C$19=Matrices!$B$15,0,(G15-Matrices!$B$15)/(Matrices!$B$15-1))</f>
         <v>3.5151917173796843E-3</v>
       </c>
       <c r="J15" s="63"/>
-      <c r="K15" s="169">
+      <c r="K15" s="167">
         <f>IF(I15=0,0,I15/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
         <v>6.0606753747925596E-3</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="159"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="98" t="str">
         <f>Datos!E12</f>
         <v>Camellia-256-cbc</v>
@@ -4819,11 +4819,11 @@
         <v>3.0017862217350708</v>
       </c>
       <c r="F16" s="63"/>
-      <c r="G16" s="167"/>
+      <c r="G16" s="165"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="167"/>
+      <c r="I16" s="165"/>
       <c r="J16" s="63"/>
-      <c r="K16" s="170"/>
+      <c r="K16" s="168"/>
       <c r="L16" s="63"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4831,7 +4831,7 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="159"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="98" t="str">
         <f>Datos!E13</f>
         <v>Aes-256-cbc</v>
@@ -4846,11 +4846,11 @@
         <v>3.0053613774615942</v>
       </c>
       <c r="F17" s="63"/>
-      <c r="G17" s="168"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="168"/>
+      <c r="I17" s="166"/>
       <c r="J17" s="63"/>
-      <c r="K17" s="170"/>
+      <c r="K17" s="168"/>
       <c r="L17" s="63"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4858,7 +4858,7 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="159"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="97"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -4876,7 +4876,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="160"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="97"/>
       <c r="C19" s="64">
         <f>SUM(C15:C17)</f>
@@ -4956,7 +4956,7 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="158" t="s">
+      <c r="A23" s="161" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="98" t="str">
@@ -4973,17 +4973,17 @@
         <v>3</v>
       </c>
       <c r="F23" s="66"/>
-      <c r="G23" s="161">
+      <c r="G23" s="173">
         <f>SUM(E23:E25)/Matrices!$B$15</f>
         <v>3</v>
       </c>
       <c r="H23" s="66"/>
-      <c r="I23" s="161">
+      <c r="I23" s="173">
         <f>IF($C$27=Matrices!$B$15,0,(G23-Matrices!$B$15)/(Matrices!$B$15-1))</f>
         <v>0</v>
       </c>
       <c r="J23" s="66"/>
-      <c r="K23" s="164">
+      <c r="K23" s="176">
         <f>IF(I23=0,0,I23/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
         <v>0</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="159"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="98" t="str">
         <f>B16</f>
         <v>Camellia-256-cbc</v>
@@ -5009,11 +5009,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="66"/>
-      <c r="G24" s="162"/>
+      <c r="G24" s="174"/>
       <c r="H24" s="66"/>
-      <c r="I24" s="162"/>
+      <c r="I24" s="174"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="165"/>
+      <c r="K24" s="177"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5021,7 +5021,7 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="159"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="98" t="str">
         <f>B17</f>
         <v>Aes-256-cbc</v>
@@ -5036,11 +5036,11 @@
         <v>3</v>
       </c>
       <c r="F25" s="66"/>
-      <c r="G25" s="163"/>
+      <c r="G25" s="175"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="163"/>
+      <c r="I25" s="175"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="165"/>
+      <c r="K25" s="177"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5048,7 +5048,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="159"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="2"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -5066,7 +5066,7 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="160"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="2"/>
       <c r="C27" s="68">
         <f>SUM(C23:C25)</f>
@@ -5146,7 +5146,7 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="161" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="98" t="str">
@@ -5155,27 +5155,27 @@
       </c>
       <c r="C31" s="68">
         <f>Matrices!D35*Matrices!$N$35+Matrices!E35*Matrices!$N$36+Matrices!F35*Matrices!$N$37</f>
-        <v>0.24704184704184703</v>
+        <v>0.30707070707070705</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="68">
         <f>IF(ISERROR(C31/Matrices!$N35),0,C31/Matrices!$N35)</f>
-        <v>3.0194003527336863</v>
+        <v>3.0412362749084987</v>
       </c>
       <c r="F31" s="66"/>
-      <c r="G31" s="161">
+      <c r="G31" s="173">
         <f>SUM(E31:E33)/Matrices!$B$15</f>
-        <v>3.1023190271515424</v>
+        <v>3.1918823994318823</v>
       </c>
       <c r="H31" s="66"/>
-      <c r="I31" s="161">
+      <c r="I31" s="173">
         <f>IF($C$35=Matrices!$B$15,0,(G31-Matrices!$B$15)/(Matrices!$B$15-1))</f>
-        <v>5.1159513575771198E-2</v>
+        <v>9.5941199715941172E-2</v>
       </c>
       <c r="J31" s="66"/>
-      <c r="K31" s="164">
+      <c r="K31" s="176">
         <f>IF(I31=0,0,I31/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
-        <v>8.8206057889260697E-2</v>
+        <v>0.16541586157920893</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -5184,26 +5184,26 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="159"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="98" t="str">
         <f>B16</f>
         <v>Camellia-256-cbc</v>
       </c>
       <c r="C32" s="68">
         <f>Matrices!D36*Matrices!$N$35+Matrices!E36*Matrices!$N$36+Matrices!F36*Matrices!$N$37</f>
-        <v>0.54747474747474745</v>
+        <v>0.61709233253948703</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="68">
         <f>IF(ISERROR(C32/Matrices!$N36),0,C32/Matrices!$N36)</f>
-        <v>3.0621468926553668</v>
+        <v>3.1290165868554376</v>
       </c>
       <c r="F32" s="66"/>
-      <c r="G32" s="162"/>
+      <c r="G32" s="174"/>
       <c r="H32" s="66"/>
-      <c r="I32" s="162"/>
+      <c r="I32" s="174"/>
       <c r="J32" s="66"/>
-      <c r="K32" s="165"/>
+      <c r="K32" s="177"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5211,26 +5211,26 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="159"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="98" t="str">
         <f>B17</f>
         <v>Aes-256-cbc</v>
       </c>
       <c r="C33" s="68">
         <f>Matrices!D37*Matrices!$N$35+Matrices!E37*Matrices!$N$36+Matrices!F37*Matrices!$N$37</f>
-        <v>2.3848484848484848</v>
+        <v>2.3899564753223288</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="68">
         <f>IF(ISERROR(C33/Matrices!$N37),0,C33/Matrices!$N37)</f>
-        <v>3.2254098360655736</v>
+        <v>3.4053943365317108</v>
       </c>
       <c r="F33" s="66"/>
-      <c r="G33" s="163"/>
+      <c r="G33" s="175"/>
       <c r="H33" s="66"/>
-      <c r="I33" s="163"/>
+      <c r="I33" s="175"/>
       <c r="J33" s="66"/>
-      <c r="K33" s="165"/>
+      <c r="K33" s="177"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5249,7 +5249,7 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="159"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="15"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -5278,11 +5278,11 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="160"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="2"/>
       <c r="C35" s="68">
         <f>SUM(C31:C33)</f>
-        <v>3.1793650793650792</v>
+        <v>3.3141195149325231</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
@@ -5378,7 +5378,7 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="161" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="99" t="str">
@@ -5395,17 +5395,17 @@
         <v>3.0044814914403517</v>
       </c>
       <c r="F39" s="66"/>
-      <c r="G39" s="161">
+      <c r="G39" s="173">
         <f>SUM(E39:E41)/Matrices!$B$15</f>
         <v>3.0218760598034478</v>
       </c>
       <c r="H39" s="66"/>
-      <c r="I39" s="161">
+      <c r="I39" s="173">
         <f>IF($C$43=Matrices!$B$15,0,(G39-Matrices!$B$15)/(Matrices!$B$15-1))</f>
         <v>1.0938029901723878E-2</v>
       </c>
       <c r="J39" s="66"/>
-      <c r="K39" s="164">
+      <c r="K39" s="176">
         <f>IF(I39=0,0,I39/HLOOKUP(Matrices!$B$15,$R$6:$AA$7,2,0))</f>
         <v>1.8858672244351515E-2</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="159"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="99" t="str">
         <f>B16</f>
         <v>Camellia-256-cbc</v>
@@ -5430,18 +5430,18 @@
         <v>3.0094600008903529</v>
       </c>
       <c r="F40" s="66"/>
-      <c r="G40" s="162"/>
+      <c r="G40" s="174"/>
       <c r="H40" s="66"/>
-      <c r="I40" s="162"/>
+      <c r="I40" s="174"/>
       <c r="J40" s="66"/>
-      <c r="K40" s="165"/>
+      <c r="K40" s="177"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="159"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="99" t="str">
         <f>B17</f>
         <v>Aes-256-cbc</v>
@@ -5456,18 +5456,18 @@
         <v>3.0516866870796373</v>
       </c>
       <c r="F41" s="66"/>
-      <c r="G41" s="163"/>
+      <c r="G41" s="175"/>
       <c r="H41" s="66"/>
-      <c r="I41" s="163"/>
+      <c r="I41" s="175"/>
       <c r="J41" s="66"/>
-      <c r="K41" s="165"/>
+      <c r="K41" s="177"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="159"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="2"/>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
@@ -5484,7 +5484,7 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="160"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="2"/>
       <c r="C43" s="67">
         <f>SUM(C39:C41)</f>
@@ -6404,15 +6404,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="K6:K9"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="I39:I41"/>
@@ -6425,6 +6416,15 @@
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="K31:K33"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6435,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6451,24 +6451,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.6" x14ac:dyDescent="0.85">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -6546,16 +6546,16 @@
     </row>
     <row r="6" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="177"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
       <c r="G6" s="124"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="181" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="41"/>
@@ -6575,7 +6575,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="179"/>
+      <c r="I7" s="182"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -6587,15 +6587,15 @@
     <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="109"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="180"/>
+      <c r="I8" s="183"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="E10" s="83">
         <f>Matrices!N35</f>
-        <v>8.1818181818181804E-2</v>
+        <v>0.10096903999343025</v>
       </c>
       <c r="F10" s="83">
         <f>Matrices!N44</f>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="I10" s="118">
         <f>SUMPRODUCT(C10:F10,$C$14:$F$14)</f>
-        <v>0.48678146580420634</v>
+        <v>0.4888258929296686</v>
       </c>
       <c r="J10" s="104" t="str">
         <f>IF(I10=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E11" s="83">
         <f>Matrices!N36</f>
-        <v>0.1787878787878788</v>
+        <v>0.19721606306972161</v>
       </c>
       <c r="F11" s="83">
         <f>Matrices!N45</f>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="I11" s="118">
         <f>SUMPRODUCT(C11:F11,$C$14:$F$14)</f>
-        <v>0.16433669763498304</v>
+        <v>0.16630397656703164</v>
       </c>
       <c r="J11" s="105" t="str">
         <f>IF(I11=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="E12" s="83">
         <f>Matrices!N37</f>
-        <v>0.73939393939393938</v>
+        <v>0.70181489693684806</v>
       </c>
       <c r="F12" s="83">
         <f>Matrices!N46</f>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="I12" s="119">
         <f>SUMPRODUCT(C12:F12,$C$14:$F$14)</f>
-        <v>0.34888183656081062</v>
+        <v>0.34487013050329979</v>
       </c>
       <c r="J12" s="105" t="str">
         <f>IF(I12=MAX($I$10:$I$12),"&lt;=MEJOR ALTERNATIVA","")</f>
@@ -6811,9 +6811,9 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
